--- a/Arima_solcell/output.xlsx
+++ b/Arima_solcell/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,79 +452,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>108.178257449578</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.57916666666667</v>
+        <v>1.57916666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.978045134393559</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.604166666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32.12878657027</v>
+        <v>9.978045134393559</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>780</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4208333333333339</v>
+        <v>-2.183333333333337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50.5753169014478</v>
+        <v>32.12878657027</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>-780</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.341666666666667</v>
+        <v>0.4208333333333339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.60518088312048</v>
+        <v>50.5753169014478</v>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>-50</v>
       </c>
       <c r="C6" t="n">
-        <v>0.44583333333333</v>
+        <v>-1.341666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.807069103223361</v>
+        <v>4.60518088312048</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>2.29166666666667</v>
+        <v>0.44583333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>8.807069103223361</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C8" t="n">
-        <v>2.87083333333333</v>
+        <v>2.29166666666667</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.08333333333333</v>
+        <v>2.87083333333333</v>
       </c>
     </row>
     <row r="10">
@@ -557,2691 +557,2702 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5.70416666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106.992334213238</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.14583333333334</v>
+        <v>1.62083333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>57.9650865168954</v>
+        <v>106.992334213238</v>
       </c>
       <c r="B13" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="C13" t="n">
-        <v>1.4375</v>
+        <v>-1.14583333333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>182.856779059653</v>
+        <v>57.9650865168954</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6624999999999996</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>90.97566429117011</v>
+        <v>182.856779059653</v>
       </c>
       <c r="B15" t="n">
-        <v>190</v>
+        <v>-170</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9583333333333304</v>
+        <v>-0.6624999999999996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43.04278141988</v>
+        <v>90.97566429117011</v>
       </c>
       <c r="B16" t="n">
-        <v>740</v>
+        <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3916666666666702</v>
+        <v>-0.9583333333333304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>43.04278141988</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4041666666666597</v>
+        <v>-0.3916666666666701</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>32.3849969894907</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>990</v>
+        <v>-740</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6708333333333298</v>
+        <v>-0.4041666666666597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37.4124142459578</v>
+        <v>32.3849969894907</v>
       </c>
       <c r="B19" t="n">
-        <v>1060</v>
+        <v>990</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.8625</v>
+        <v>0.6708333333333298</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73.46816941399111</v>
+        <v>37.4124142459578</v>
       </c>
       <c r="B20" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>1.67083333333333</v>
+        <v>-2.8625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>114.144911306369</v>
+        <v>73.46816941399111</v>
       </c>
       <c r="B21" t="n">
-        <v>80</v>
+        <v>-850</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.149999999999997</v>
+        <v>1.67083333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>96.1069318968034</v>
+        <v>114.144911306369</v>
       </c>
       <c r="B22" t="n">
-        <v>140</v>
+        <v>-130</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.533333333333333</v>
+        <v>-2.149999999999997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>85.86971767986989</v>
+        <v>96.1069318968034</v>
       </c>
       <c r="B23" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.3375</v>
+        <v>-1.533333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>85.86971767986989</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>1.9625</v>
+        <v>-1.3375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>90.00617514366419</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>45.9239245846695</v>
+        <v>90.00617514366419</v>
       </c>
       <c r="B26" t="n">
-        <v>1050</v>
+        <v>-20</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.22916666666667</v>
+        <v>9.0625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>39.0164698795473</v>
+        <v>45.9239245846695</v>
       </c>
       <c r="B27" t="n">
-        <v>1290</v>
+        <v>880</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.80833333333333</v>
+        <v>-3.22916666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>55.5118959180905</v>
+        <v>39.0164698795473</v>
       </c>
       <c r="B28" t="n">
-        <v>510</v>
+        <v>240</v>
       </c>
       <c r="C28" t="n">
-        <v>1.5625</v>
+        <v>-2.80833333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>71.2184972099442</v>
+        <v>55.5118959180905</v>
       </c>
       <c r="B29" t="n">
-        <v>460</v>
+        <v>-780</v>
       </c>
       <c r="C29" t="n">
-        <v>1.51666666666667</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>45.9283800224341</v>
+        <v>71.2184972099442</v>
       </c>
       <c r="B30" t="n">
-        <v>1140</v>
+        <v>-50</v>
       </c>
       <c r="C30" t="n">
-        <v>1.07916666666666</v>
+        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43.1493281282617</v>
+        <v>45.9283800224341</v>
       </c>
       <c r="B31" t="n">
-        <v>1340</v>
+        <v>680</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.625</v>
+        <v>1.07916666666666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85.6556142243556</v>
+        <v>43.1493281282617</v>
       </c>
       <c r="B32" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2083333333333399</v>
+        <v>-3.625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21.9417916628035</v>
+        <v>85.6556142243556</v>
       </c>
       <c r="B33" t="n">
-        <v>1190</v>
+        <v>-1130</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.6625</v>
+        <v>0.2083333333333399</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43.1512592611229</v>
+        <v>21.9417916628035</v>
       </c>
       <c r="B34" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8375000000000001</v>
+        <v>-3.6625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43.8811617774167</v>
+        <v>43.1512592611229</v>
       </c>
       <c r="B35" t="n">
-        <v>1430</v>
+        <v>-230</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.34166666666667</v>
+        <v>0.8375000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>72.091711911399</v>
+        <v>43.8811617774167</v>
       </c>
       <c r="B36" t="n">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="C36" t="n">
-        <v>2.6</v>
+        <v>-1.34166666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>39.2822378320312</v>
+        <v>72.091711911399</v>
       </c>
       <c r="B37" t="n">
-        <v>1290</v>
+        <v>-1160</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7749999999999999</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107.449262103456</v>
+        <v>39.2822378320312</v>
       </c>
       <c r="B38" t="n">
-        <v>130</v>
+        <v>1020</v>
       </c>
       <c r="C38" t="n">
-        <v>2.27916666666667</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92.691126833544</v>
+        <v>107.449262103456</v>
       </c>
       <c r="B39" t="n">
-        <v>170</v>
+        <v>-1160</v>
       </c>
       <c r="C39" t="n">
-        <v>1.775</v>
+        <v>2.27916666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>83.6522175699973</v>
+        <v>92.691126833544</v>
       </c>
       <c r="B40" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.40416666666667</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>55.5766510333095</v>
+        <v>83.6522175699973</v>
       </c>
       <c r="B41" t="n">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4499999999999997</v>
+        <v>-2.40416666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87.4809277684252</v>
+        <v>55.5766510333095</v>
       </c>
       <c r="B42" t="n">
-        <v>380</v>
+        <v>1100</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.15</v>
+        <v>0.4499999999999997</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>70.1808444160632</v>
+        <v>87.4809277684252</v>
       </c>
       <c r="B43" t="n">
-        <v>790</v>
+        <v>-970</v>
       </c>
       <c r="C43" t="n">
-        <v>1.175</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>66.06370721387459</v>
+        <v>70.1808444160632</v>
       </c>
       <c r="B44" t="n">
-        <v>1190</v>
+        <v>410</v>
       </c>
       <c r="C44" t="n">
-        <v>3.56666666666667</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>58.857895822114</v>
+        <v>66.06370721387459</v>
       </c>
       <c r="B45" t="n">
-        <v>1590</v>
+        <v>400</v>
       </c>
       <c r="C45" t="n">
-        <v>1.38333333333333</v>
+        <v>3.56666666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>96.1692552214606</v>
+        <v>58.857895822114</v>
       </c>
       <c r="B46" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.041666666666671</v>
+        <v>1.38333333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111.571202553799</v>
+        <v>96.1692552214606</v>
       </c>
       <c r="B47" t="n">
-        <v>220</v>
+        <v>-1410</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.5874999999999995</v>
+        <v>-2.041666666666671</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>102.321764415068</v>
+        <v>111.571202553799</v>
       </c>
       <c r="B48" t="n">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="C48" t="n">
-        <v>1.158333333333339</v>
+        <v>-0.5874999999999995</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111.044389256643</v>
+        <v>102.321764415068</v>
       </c>
       <c r="B49" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.50416666666667</v>
+        <v>1.158333333333339</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>46.5516729551692</v>
+        <v>111.044389256643</v>
       </c>
       <c r="B50" t="n">
-        <v>2420</v>
+        <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.08333333333333</v>
+        <v>-2.50416666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>30.1618641727971</v>
+        <v>46.5516729551692</v>
       </c>
       <c r="B51" t="n">
-        <v>350</v>
+        <v>2040</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3333333333333302</v>
+        <v>-2.08333333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12.0520013528654</v>
+        <v>30.1618641727971</v>
       </c>
       <c r="B52" t="n">
-        <v>510</v>
+        <v>-2070</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.970833333333333</v>
+        <v>0.3333333333333301</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>35.2646020678821</v>
+        <v>12.0520013528654</v>
       </c>
       <c r="B53" t="n">
-        <v>1270</v>
+        <v>160</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8875000000000028</v>
+        <v>-0.970833333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.637633595951019</v>
+        <v>35.2646020678821</v>
       </c>
       <c r="B54" t="n">
-        <v>420</v>
+        <v>760</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8916666666666599</v>
+        <v>0.8875000000000028</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>24.6880991955975</v>
+        <v>9.637633595951019</v>
       </c>
       <c r="B55" t="n">
-        <v>460</v>
+        <v>-850</v>
       </c>
       <c r="C55" t="n">
-        <v>1.05416666666667</v>
+        <v>0.8916666666666599</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29.7085164133779</v>
+        <v>24.6880991955975</v>
       </c>
       <c r="B56" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>-3.858333333333333</v>
+        <v>1.05416666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>53.261163825791</v>
+        <v>29.7085164133779</v>
       </c>
       <c r="B57" t="n">
-        <v>1250</v>
+        <v>40</v>
       </c>
       <c r="C57" t="n">
-        <v>0.304166666666666</v>
+        <v>-3.858333333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59.1200340914995</v>
+        <v>53.261163825791</v>
       </c>
       <c r="B58" t="n">
-        <v>1770</v>
+        <v>750</v>
       </c>
       <c r="C58" t="n">
-        <v>5.312499999999996</v>
+        <v>0.304166666666666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>60.535449449258</v>
+        <v>59.1200340914995</v>
       </c>
       <c r="B59" t="n">
-        <v>2350</v>
+        <v>520</v>
       </c>
       <c r="C59" t="n">
-        <v>1.225000000000001</v>
+        <v>5.312499999999996</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>50.19253207659</v>
+        <v>60.535449449258</v>
       </c>
       <c r="B60" t="n">
-        <v>3220</v>
+        <v>580</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5416666666666696</v>
+        <v>1.225</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>55.228100259389</v>
+        <v>50.19253207659</v>
       </c>
       <c r="B61" t="n">
-        <v>2870</v>
+        <v>870</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0.5416666666666696</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>71.712063346704</v>
+        <v>55.228100259389</v>
       </c>
       <c r="B62" t="n">
-        <v>1250</v>
+        <v>-350</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.612500000000001</v>
+        <v>-0.0999999999999996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>49.5871991695028</v>
+        <v>71.712063346704</v>
       </c>
       <c r="B63" t="n">
-        <v>2750</v>
+        <v>-1620</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.858333333333333</v>
+        <v>-1.612500000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>55.3075888974583</v>
+        <v>49.5871991695028</v>
       </c>
       <c r="B64" t="n">
-        <v>2370</v>
+        <v>1500</v>
       </c>
       <c r="C64" t="n">
-        <v>0.433333333333333</v>
+        <v>-4.858333333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>42.1547322256238</v>
+        <v>55.3075888974583</v>
       </c>
       <c r="B65" t="n">
-        <v>1630</v>
+        <v>-380</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.4375</v>
+        <v>0.433333333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64.88949203755369</v>
+        <v>42.1547322256238</v>
       </c>
       <c r="B66" t="n">
-        <v>1570</v>
+        <v>-740</v>
       </c>
       <c r="C66" t="n">
-        <v>0.370833333333333</v>
+        <v>-1.4375</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.05325567517983</v>
+        <v>64.88949203755369</v>
       </c>
       <c r="B67" t="n">
-        <v>480</v>
+        <v>-60</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.175000000000003</v>
+        <v>0.3708333333333329</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.95286890026785</v>
+        <v>1.05325567517983</v>
       </c>
       <c r="B68" t="n">
-        <v>2300</v>
+        <v>-1090</v>
       </c>
       <c r="C68" t="n">
-        <v>1.120833333333337</v>
+        <v>-1.175000000000003</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.98336922303114</v>
+        <v>2.95286890026785</v>
       </c>
       <c r="B69" t="n">
-        <v>2520</v>
+        <v>1820</v>
       </c>
       <c r="C69" t="n">
-        <v>3.937500000000003</v>
+        <v>1.120833333333337</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>11.9020995442093</v>
+        <v>6.98336922303114</v>
       </c>
       <c r="B70" t="n">
-        <v>1940</v>
+        <v>220</v>
       </c>
       <c r="C70" t="n">
-        <v>-4.120833333333337</v>
+        <v>3.937500000000002</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.4921680973977</v>
+        <v>11.9020995442093</v>
       </c>
       <c r="B71" t="n">
-        <v>4000</v>
+        <v>-580</v>
       </c>
       <c r="C71" t="n">
-        <v>1.291666666666667</v>
+        <v>-4.120833333333337</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.227476913132371</v>
+        <v>10.4921680973977</v>
       </c>
       <c r="B72" t="n">
-        <v>620</v>
+        <v>2060</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2333333333333331</v>
+        <v>1.291666666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>61.7084853428725</v>
+        <v>8.227476913132371</v>
       </c>
       <c r="B73" t="n">
-        <v>1230</v>
+        <v>-3380</v>
       </c>
       <c r="C73" t="n">
-        <v>4.770833333333337</v>
+        <v>0.233333333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>44.5016929397074</v>
+        <v>61.7084853428725</v>
       </c>
       <c r="B74" t="n">
-        <v>4570</v>
+        <v>610</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.091666666666669</v>
+        <v>4.770833333333337</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>46.436425500229</v>
+        <v>44.5016929397074</v>
       </c>
       <c r="B75" t="n">
-        <v>4530</v>
+        <v>3340</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.1333333333333302</v>
+        <v>-2.091666666666669</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>74.13646665878881</v>
+        <v>46.436425500229</v>
       </c>
       <c r="B76" t="n">
-        <v>1450</v>
+        <v>-40</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.19583333333334</v>
+        <v>-0.1333333333333302</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>101.946349193798</v>
+        <v>74.13646665878881</v>
       </c>
       <c r="B77" t="n">
-        <v>300</v>
+        <v>-3080</v>
       </c>
       <c r="C77" t="n">
-        <v>2.49583333333334</v>
+        <v>-0.1958333333333399</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>93.48171307745319</v>
+        <v>101.946349193798</v>
       </c>
       <c r="B78" t="n">
-        <v>870</v>
+        <v>-1150</v>
       </c>
       <c r="C78" t="n">
-        <v>1.775</v>
+        <v>2.49583333333334</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78.6455124124701</v>
+        <v>93.48171307745319</v>
       </c>
       <c r="B79" t="n">
-        <v>730</v>
+        <v>570</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.3375</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>58.1691788166217</v>
+        <v>78.6455124124701</v>
       </c>
       <c r="B80" t="n">
-        <v>2960</v>
+        <v>-140</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8416666666666606</v>
+        <v>-1.3375</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>79.69998876196139</v>
+        <v>58.1691788166217</v>
       </c>
       <c r="B81" t="n">
-        <v>1220</v>
+        <v>2230</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7624999999999993</v>
+        <v>0.8416666666666606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>54.7134591826695</v>
+        <v>79.69998876196139</v>
       </c>
       <c r="B82" t="n">
-        <v>4180</v>
+        <v>-1740</v>
       </c>
       <c r="C82" t="n">
-        <v>2.833333333333369</v>
+        <v>0.7624999999999993</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>95.40836568659709</v>
+        <v>54.7134591826695</v>
       </c>
       <c r="B83" t="n">
-        <v>830</v>
+        <v>2960</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.779166666666699</v>
+        <v>2.833333333333369</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>94.2949304027978</v>
+        <v>95.40836568659709</v>
       </c>
       <c r="B84" t="n">
-        <v>460</v>
+        <v>-3350</v>
       </c>
       <c r="C84" t="n">
-        <v>-6.27916666666667</v>
+        <v>-2.779166666666699</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>75.0740796830267</v>
+        <v>94.2949304027978</v>
       </c>
       <c r="B85" t="n">
-        <v>930</v>
+        <v>-370</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.33333333333333</v>
+        <v>-6.27916666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>14.1834868870176</v>
+        <v>75.0740796830267</v>
       </c>
       <c r="B86" t="n">
-        <v>1350</v>
+        <v>470</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.70416666666667</v>
+        <v>-1.33333333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>21.0204763448729</v>
+        <v>14.1834868870176</v>
       </c>
       <c r="B87" t="n">
-        <v>2510</v>
+        <v>420</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.4083333333333299</v>
+        <v>-1.70416666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>40.8303304737184</v>
+        <v>21.0204763448729</v>
       </c>
       <c r="B88" t="n">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="C88" t="n">
-        <v>1.808333333333333</v>
+        <v>-0.4083333333333299</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17.9765209142533</v>
+        <v>40.8303304737184</v>
       </c>
       <c r="B89" t="n">
-        <v>1670</v>
+        <v>-1290</v>
       </c>
       <c r="C89" t="n">
-        <v>2.054166666666667</v>
+        <v>1.808333333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>40.2426128197352</v>
+        <v>17.9765209142533</v>
       </c>
       <c r="B90" t="n">
-        <v>3550</v>
+        <v>450</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.30833333333333</v>
+        <v>2.054166666666667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>45.7681993345093</v>
+        <v>40.2426128197352</v>
       </c>
       <c r="B91" t="n">
-        <v>5320</v>
+        <v>1880</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8833333333333298</v>
+        <v>-0.30833333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>46.8107491651167</v>
+        <v>45.7681993345093</v>
       </c>
       <c r="B92" t="n">
-        <v>5230</v>
+        <v>1770</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.5249999999999999</v>
+        <v>0.8833333333333298</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>47.629181014075</v>
+        <v>46.8107491651167</v>
       </c>
       <c r="B93" t="n">
-        <v>5370</v>
+        <v>-90</v>
       </c>
       <c r="C93" t="n">
-        <v>0.80833333333333</v>
+        <v>-0.5249999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>73.8685580458616</v>
+        <v>47.629181014075</v>
       </c>
       <c r="B94" t="n">
-        <v>2620</v>
+        <v>140</v>
       </c>
       <c r="C94" t="n">
-        <v>1.09583333333334</v>
+        <v>0.80833333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>68.5661542927762</v>
+        <v>73.8685580458616</v>
       </c>
       <c r="B95" t="n">
-        <v>870</v>
+        <v>-2750</v>
       </c>
       <c r="C95" t="n">
-        <v>-2.84583333333334</v>
+        <v>1.09583333333334</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>59.495745687759</v>
+        <v>68.5661542927762</v>
       </c>
       <c r="B96" t="n">
-        <v>2980</v>
+        <v>-1750</v>
       </c>
       <c r="C96" t="n">
-        <v>5.458333333333339</v>
+        <v>-2.84583333333334</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>88.34973012083221</v>
+        <v>59.495745687759</v>
       </c>
       <c r="B97" t="n">
-        <v>740</v>
+        <v>2110</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.779166666666669</v>
+        <v>5.458333333333339</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>48.7137172765559</v>
+        <v>88.34973012083221</v>
       </c>
       <c r="B98" t="n">
-        <v>5430</v>
+        <v>-2240</v>
       </c>
       <c r="C98" t="n">
-        <v>5.866666666666659</v>
+        <v>-2.779166666666669</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>59.2303127015104</v>
+        <v>48.7137172765559</v>
       </c>
       <c r="B99" t="n">
-        <v>3580</v>
+        <v>4690</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.137499999999989</v>
+        <v>5.866666666666659</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>52.0100246789516</v>
+        <v>59.2303127015104</v>
       </c>
       <c r="B100" t="n">
-        <v>5320</v>
+        <v>-1850</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4624999999999986</v>
+        <v>-1.137499999999989</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>59.8483651163253</v>
+        <v>52.0100246789516</v>
       </c>
       <c r="B101" t="n">
-        <v>4190</v>
+        <v>1740</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3125</v>
+        <v>0.4624999999999986</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>55.9556603821059</v>
+        <v>59.8483651163253</v>
       </c>
       <c r="B102" t="n">
-        <v>4520</v>
+        <v>-1130</v>
       </c>
       <c r="C102" t="n">
-        <v>3.637500000000031</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>79.9883437492548</v>
+        <v>55.9556603821059</v>
       </c>
       <c r="B103" t="n">
-        <v>1030</v>
+        <v>330</v>
       </c>
       <c r="C103" t="n">
-        <v>-5.929166666666701</v>
+        <v>3.637500000000031</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>93.1122391529268</v>
+        <v>79.9883437492548</v>
       </c>
       <c r="B104" t="n">
-        <v>930</v>
+        <v>-3490</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.958333333333329</v>
+        <v>-5.929166666666701</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>50.8056377584363</v>
+        <v>93.1122391529268</v>
       </c>
       <c r="B105" t="n">
-        <v>5560</v>
+        <v>-100</v>
       </c>
       <c r="C105" t="n">
-        <v>2.16666666666666</v>
+        <v>-1.958333333333329</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>50.1382013304482</v>
+        <v>50.8056377584363</v>
       </c>
       <c r="B106" t="n">
-        <v>5730</v>
+        <v>4630</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9958333333333407</v>
+        <v>2.16666666666666</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>50.2721875180671</v>
+        <v>50.1382013304482</v>
       </c>
       <c r="B107" t="n">
-        <v>5780</v>
+        <v>170</v>
       </c>
       <c r="C107" t="n">
-        <v>1.354166666666659</v>
+        <v>0.9958333333333408</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>50.0209588515939</v>
+        <v>50.2721875180671</v>
       </c>
       <c r="B108" t="n">
-        <v>5720</v>
+        <v>50</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.07083333333332931</v>
+        <v>1.354166666666659</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>49.8179514281967</v>
+        <v>50.0209588515939</v>
       </c>
       <c r="B109" t="n">
-        <v>5940</v>
+        <v>-60</v>
       </c>
       <c r="C109" t="n">
-        <v>0.30416666666666</v>
+        <v>-0.07083333333332931</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>56.0158785672722</v>
+        <v>49.8179514281967</v>
       </c>
       <c r="B110" t="n">
-        <v>5240</v>
+        <v>220</v>
       </c>
       <c r="C110" t="n">
-        <v>3.437500000000039</v>
+        <v>0.30416666666666</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>58.9083179585633</v>
+        <v>56.0158785672722</v>
       </c>
       <c r="B111" t="n">
-        <v>4810</v>
+        <v>-700</v>
       </c>
       <c r="C111" t="n">
-        <v>1.966666666666601</v>
+        <v>3.437500000000039</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>52.1912666647162</v>
+        <v>58.9083179585633</v>
       </c>
       <c r="B112" t="n">
-        <v>5880</v>
+        <v>-430</v>
       </c>
       <c r="C112" t="n">
-        <v>1.749999999999998</v>
+        <v>1.966666666666601</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>55.9025541282928</v>
+        <v>52.1912666647162</v>
       </c>
       <c r="B113" t="n">
-        <v>4710</v>
+        <v>1070</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.599999999999998</v>
+        <v>1.749999999999998</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>92.8080295176414</v>
+        <v>55.9025541282928</v>
       </c>
       <c r="B114" t="n">
-        <v>810</v>
+        <v>-1170</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.987499999999971</v>
+        <v>-2.599999999999998</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>105.564036870106</v>
+        <v>92.8080295176414</v>
       </c>
       <c r="B115" t="n">
-        <v>1160</v>
+        <v>-3900</v>
       </c>
       <c r="C115" t="n">
-        <v>2.22916666666667</v>
+        <v>-7.98749999999997</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>56.0715750110227</v>
+        <v>105.564036870106</v>
       </c>
       <c r="B116" t="n">
-        <v>3690</v>
+        <v>350</v>
       </c>
       <c r="C116" t="n">
-        <v>1.487500000000001</v>
+        <v>2.22916666666667</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>49.6215329924977</v>
+        <v>56.0715750110227</v>
       </c>
       <c r="B117" t="n">
-        <v>4420</v>
+        <v>2530</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.700000000000001</v>
+        <v>1.487500000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>62.2431424981338</v>
+        <v>49.6215329924977</v>
       </c>
       <c r="B118" t="n">
-        <v>3610</v>
+        <v>730</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.2999999999999998</v>
+        <v>-1.700000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>82.5351138798064</v>
+        <v>62.2431424981338</v>
       </c>
       <c r="B119" t="n">
-        <v>2220</v>
+        <v>-810</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7083333333333295</v>
+        <v>-0.2999999999999998</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>55.3017490151192</v>
+        <v>82.5351138798064</v>
       </c>
       <c r="B120" t="n">
-        <v>4440</v>
+        <v>-1390</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1750000000000007</v>
+        <v>0.7083333333333295</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>83.43902276216539</v>
+        <v>55.3017490151192</v>
       </c>
       <c r="B121" t="n">
-        <v>2110</v>
+        <v>2220</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.12083333333333</v>
+        <v>0.1750000000000007</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>47.2251978276075</v>
+        <v>83.43902276216539</v>
       </c>
       <c r="B122" t="n">
-        <v>4030</v>
+        <v>-2330</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.04166666666666963</v>
+        <v>-0.12083333333333</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>46.6216721853319</v>
+        <v>47.2251978276075</v>
       </c>
       <c r="B123" t="n">
-        <v>6130</v>
+        <v>1920</v>
       </c>
       <c r="C123" t="n">
-        <v>1.533333333333369</v>
+        <v>-0.0416666666666696</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>63.6721417669879</v>
+        <v>46.6216721853319</v>
       </c>
       <c r="B124" t="n">
-        <v>3830</v>
+        <v>2100</v>
       </c>
       <c r="C124" t="n">
-        <v>-3.575000000000029</v>
+        <v>1.533333333333369</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>56.8353388343665</v>
+        <v>63.6721417669879</v>
       </c>
       <c r="B125" t="n">
-        <v>4680</v>
+        <v>-2300</v>
       </c>
       <c r="C125" t="n">
-        <v>1.6875</v>
+        <v>-3.575000000000029</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>49.6049100185412</v>
+        <v>56.8353388343665</v>
       </c>
       <c r="B126" t="n">
-        <v>6340</v>
+        <v>850</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9041666666666597</v>
+        <v>1.6875</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>52.7771045729181</v>
+        <v>49.6049100185412</v>
       </c>
       <c r="B127" t="n">
-        <v>6140</v>
+        <v>1660</v>
       </c>
       <c r="C127" t="n">
-        <v>1.749999999999972</v>
+        <v>0.9041666666666596</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>51.306454723523</v>
+        <v>52.7771045729181</v>
       </c>
       <c r="B128" t="n">
-        <v>6430</v>
+        <v>-200</v>
       </c>
       <c r="C128" t="n">
-        <v>3.233333333333398</v>
+        <v>1.749999999999972</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>51.4689935071312</v>
+        <v>51.306454723523</v>
       </c>
       <c r="B129" t="n">
-        <v>6430</v>
+        <v>290</v>
       </c>
       <c r="C129" t="n">
-        <v>1.537500000000001</v>
+        <v>3.233333333333398</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>51.9340412756687</v>
+        <v>51.4689935071312</v>
       </c>
       <c r="B130" t="n">
-        <v>6460</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3374999999999986</v>
+        <v>1.537500000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>52.1317298862955</v>
+        <v>51.9340412756687</v>
       </c>
       <c r="B131" t="n">
-        <v>6410</v>
+        <v>30</v>
       </c>
       <c r="C131" t="n">
-        <v>1.466666666666601</v>
+        <v>0.3374999999999986</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>51.9348977419437</v>
+        <v>52.1317298862955</v>
       </c>
       <c r="B132" t="n">
-        <v>6510</v>
+        <v>-50</v>
       </c>
       <c r="C132" t="n">
-        <v>1.125</v>
+        <v>1.466666666666601</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>52.2214503363516</v>
+        <v>51.9348977419437</v>
       </c>
       <c r="B133" t="n">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>55.8803249392394</v>
+        <v>52.2214503363516</v>
       </c>
       <c r="B134" t="n">
-        <v>6100</v>
+        <v>-10</v>
       </c>
       <c r="C134" t="n">
-        <v>1.495833333333401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>66.3500687906408</v>
+        <v>55.8803249392394</v>
       </c>
       <c r="B135" t="n">
-        <v>4070</v>
+        <v>-400</v>
       </c>
       <c r="C135" t="n">
-        <v>-2.2916666666667</v>
+        <v>1.495833333333401</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>95.8570134309838</v>
+        <v>66.3500687906408</v>
       </c>
       <c r="B136" t="n">
-        <v>970</v>
+        <v>-2030</v>
       </c>
       <c r="C136" t="n">
-        <v>-5.937500000000002</v>
+        <v>-2.2916666666667</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>72.2226020674583</v>
+        <v>95.8570134309838</v>
       </c>
       <c r="B137" t="n">
-        <v>1890</v>
+        <v>-3100</v>
       </c>
       <c r="C137" t="n">
-        <v>-2.9125</v>
+        <v>-5.937500000000002</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>50.4923802329742</v>
+        <v>72.2226020674583</v>
       </c>
       <c r="B138" t="n">
-        <v>6790</v>
+        <v>920</v>
       </c>
       <c r="C138" t="n">
-        <v>3.6</v>
+        <v>-2.9125</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>51.6317882367833</v>
+        <v>50.4923802329742</v>
       </c>
       <c r="B139" t="n">
-        <v>6740</v>
+        <v>4900</v>
       </c>
       <c r="C139" t="n">
-        <v>3.4416666666667</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>57.117445168621</v>
+        <v>51.6317882367833</v>
       </c>
       <c r="B140" t="n">
-        <v>6120</v>
+        <v>-50</v>
       </c>
       <c r="C140" t="n">
-        <v>1.758333333333301</v>
+        <v>3.4416666666667</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>60.4812232503985</v>
+        <v>57.117445168621</v>
       </c>
       <c r="B141" t="n">
-        <v>5360</v>
+        <v>-620</v>
       </c>
       <c r="C141" t="n">
-        <v>1.4583333333333</v>
+        <v>1.758333333333301</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>54.9513833301325</v>
+        <v>60.4812232503985</v>
       </c>
       <c r="B142" t="n">
-        <v>6130</v>
+        <v>-760</v>
       </c>
       <c r="C142" t="n">
-        <v>1.420833333333398</v>
+        <v>1.4583333333333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>53.6807642792088</v>
+        <v>54.9513833301325</v>
       </c>
       <c r="B143" t="n">
-        <v>6350</v>
+        <v>770</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.8041666666666991</v>
+        <v>1.420833333333398</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>53.5093256942862</v>
+        <v>53.6807642792088</v>
       </c>
       <c r="B144" t="n">
-        <v>6630</v>
+        <v>220</v>
       </c>
       <c r="C144" t="n">
-        <v>2.024999999999999</v>
+        <v>-0.8041666666666991</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>53.6517520949176</v>
+        <v>53.5093256942862</v>
       </c>
       <c r="B145" t="n">
-        <v>5530</v>
+        <v>280</v>
       </c>
       <c r="C145" t="n">
-        <v>-5.1041666666667</v>
+        <v>2.024999999999999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>56.9925908687466</v>
+        <v>53.6517520949176</v>
       </c>
       <c r="B146" t="n">
-        <v>5310</v>
+        <v>-1100</v>
       </c>
       <c r="C146" t="n">
-        <v>-2.891666666666598</v>
+        <v>-5.1041666666667</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>59.4344068186041</v>
+        <v>56.9925908687466</v>
       </c>
       <c r="B147" t="n">
-        <v>5810</v>
+        <v>-220</v>
       </c>
       <c r="C147" t="n">
-        <v>2.5208333333333</v>
+        <v>-2.891666666666598</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>53.8996418548632</v>
+        <v>59.4344068186041</v>
       </c>
       <c r="B148" t="n">
-        <v>4450</v>
+        <v>500</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.012499999999999</v>
+        <v>2.5208333333333</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>52.997857696753</v>
+        <v>53.8996418548632</v>
       </c>
       <c r="B149" t="n">
-        <v>6340</v>
+        <v>-1360</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7541666666666984</v>
+        <v>-1.012499999999999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>51.9924339171056</v>
+        <v>52.997857696753</v>
       </c>
       <c r="B150" t="n">
-        <v>6830</v>
+        <v>1890</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1083333333333982</v>
+        <v>0.7541666666666984</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>59.3500161155825</v>
+        <v>51.9924339171056</v>
       </c>
       <c r="B151" t="n">
-        <v>5690</v>
+        <v>490</v>
       </c>
       <c r="C151" t="n">
-        <v>1.116666666666699</v>
+        <v>-0.1083333333333982</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>52.8358598818352</v>
+        <v>59.3500161155825</v>
       </c>
       <c r="B152" t="n">
-        <v>6040</v>
+        <v>-1140</v>
       </c>
       <c r="C152" t="n">
-        <v>-5.120833333333302</v>
+        <v>1.116666666666699</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>58.2013183115354</v>
+        <v>52.8358598818352</v>
       </c>
       <c r="B153" t="n">
-        <v>4920</v>
+        <v>350</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.8249999999999993</v>
+        <v>-5.120833333333302</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>50.3115681175123</v>
+        <v>58.2013183115354</v>
       </c>
       <c r="B154" t="n">
-        <v>6600</v>
+        <v>-1120</v>
       </c>
       <c r="C154" t="n">
-        <v>5.966666666666601</v>
+        <v>-0.8249999999999993</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>68.1859631704345</v>
+        <v>50.3115681175123</v>
       </c>
       <c r="B155" t="n">
-        <v>4500</v>
+        <v>1680</v>
       </c>
       <c r="C155" t="n">
-        <v>-2.933333333333302</v>
+        <v>5.966666666666601</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>51.1610336260055</v>
+        <v>68.1859631704345</v>
       </c>
       <c r="B156" t="n">
-        <v>6850</v>
+        <v>-2100</v>
       </c>
       <c r="C156" t="n">
-        <v>5.925000000000001</v>
+        <v>-2.933333333333302</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>54.0283808979176</v>
+        <v>51.1610336260055</v>
       </c>
       <c r="B157" t="n">
-        <v>6690</v>
+        <v>2350</v>
       </c>
       <c r="C157" t="n">
-        <v>0.008333333333300885</v>
+        <v>5.925000000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>53.6261277004878</v>
+        <v>54.0283808979176</v>
       </c>
       <c r="B158" t="n">
-        <v>6770</v>
+        <v>-160</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.300000000000001</v>
+        <v>0.0083333333333008</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>58.4216289168119</v>
+        <v>53.6261277004878</v>
       </c>
       <c r="B159" t="n">
-        <v>5660</v>
+        <v>80</v>
       </c>
       <c r="C159" t="n">
-        <v>-2.370833333333302</v>
+        <v>-1.300000000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>51.7543646902707</v>
+        <v>58.4216289168119</v>
       </c>
       <c r="B160" t="n">
-        <v>6980</v>
+        <v>-1110</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.024999999999999</v>
+        <v>-2.370833333333302</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>52.7024462002041</v>
+        <v>51.7543646902707</v>
       </c>
       <c r="B161" t="n">
-        <v>7000</v>
+        <v>1320</v>
       </c>
       <c r="C161" t="n">
-        <v>2.9166666666667</v>
+        <v>-1.024999999999999</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>52.5986053797353</v>
+        <v>52.7024462002041</v>
       </c>
       <c r="B162" t="n">
-        <v>7010</v>
+        <v>20</v>
       </c>
       <c r="C162" t="n">
-        <v>2.345833333333299</v>
+        <v>2.9166666666667</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>52.4970456442272</v>
+        <v>52.5986053797353</v>
       </c>
       <c r="B163" t="n">
-        <v>7090</v>
+        <v>10</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9083333333332995</v>
+        <v>2.345833333333299</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>53.6564174807207</v>
+        <v>52.4970456442272</v>
       </c>
       <c r="B164" t="n">
-        <v>6960</v>
+        <v>80</v>
       </c>
       <c r="C164" t="n">
-        <v>2.170833333333402</v>
+        <v>0.9083333333332996</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>54.5491800892984</v>
+        <v>53.6564174807207</v>
       </c>
       <c r="B165" t="n">
-        <v>6480</v>
+        <v>-130</v>
       </c>
       <c r="C165" t="n">
-        <v>0.04583333333329875</v>
+        <v>2.170833333333402</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>56.2907495847847</v>
+        <v>54.5491800892984</v>
       </c>
       <c r="B166" t="n">
-        <v>6530</v>
+        <v>-480</v>
       </c>
       <c r="C166" t="n">
-        <v>2.2708333333333</v>
+        <v>0.0458333333332987</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>53.3472794060667</v>
+        <v>56.2907495847847</v>
       </c>
       <c r="B167" t="n">
-        <v>6570</v>
+        <v>50</v>
       </c>
       <c r="C167" t="n">
-        <v>-2.2416666666666</v>
+        <v>2.2708333333333</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>61.2103849057383</v>
+        <v>53.3472794060667</v>
       </c>
       <c r="B168" t="n">
-        <v>5250</v>
+        <v>40</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.5791666666667012</v>
+        <v>-2.2416666666666</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>89.4324309047571</v>
+        <v>61.2103849057383</v>
       </c>
       <c r="B169" t="n">
-        <v>1170</v>
+        <v>-1320</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.620833333333298</v>
+        <v>-0.5791666666667012</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>87.7000419537747</v>
+        <v>89.4324309047571</v>
       </c>
       <c r="B170" t="n">
-        <v>2320</v>
+        <v>-4080</v>
       </c>
       <c r="C170" t="n">
-        <v>3.300000000000001</v>
+        <v>-6.620833333333298</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>74.87402313865979</v>
+        <v>87.7000419537747</v>
       </c>
       <c r="B171" t="n">
-        <v>3850</v>
+        <v>1150</v>
       </c>
       <c r="C171" t="n">
-        <v>4.3333333333333</v>
+        <v>3.300000000000001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>57.4803387038682</v>
+        <v>74.87402313865979</v>
       </c>
       <c r="B172" t="n">
-        <v>6260</v>
+        <v>1530</v>
       </c>
       <c r="C172" t="n">
-        <v>0.745833333333298</v>
+        <v>4.3333333333333</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>58.7608436014447</v>
+        <v>57.4803387038682</v>
       </c>
       <c r="B173" t="n">
-        <v>5470</v>
+        <v>2410</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.570833333333301</v>
+        <v>0.745833333333298</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>52.5906286128495</v>
+        <v>58.7608436014447</v>
       </c>
       <c r="B174" t="n">
-        <v>6590</v>
+        <v>-790</v>
       </c>
       <c r="C174" t="n">
-        <v>0.375</v>
+        <v>-1.570833333333301</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>53.6540290563699</v>
+        <v>52.5906286128495</v>
       </c>
       <c r="B175" t="n">
-        <v>7000</v>
+        <v>1120</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.5791666666666977</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>51.7071445914734</v>
+        <v>53.6540290563699</v>
       </c>
       <c r="B176" t="n">
-        <v>7030</v>
+        <v>410</v>
       </c>
       <c r="C176" t="n">
-        <v>1.358333333333398</v>
+        <v>-0.5791666666666977</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>55.3125845861435</v>
+        <v>51.7071445914734</v>
       </c>
       <c r="B177" t="n">
-        <v>6770</v>
+        <v>30</v>
       </c>
       <c r="C177" t="n">
-        <v>1.1041666666666</v>
+        <v>1.358333333333398</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>47.8122123142745</v>
+        <v>55.3125845861435</v>
       </c>
       <c r="B178" t="n">
-        <v>6690</v>
+        <v>-260</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.8999999999999986</v>
+        <v>1.1041666666666</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>33.6379090605587</v>
+        <v>47.8122123142745</v>
       </c>
       <c r="B179" t="n">
-        <v>6340</v>
+        <v>-80</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5833333333333997</v>
+        <v>-0.8999999999999986</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>30.8697098725247</v>
+        <v>33.6379090605587</v>
       </c>
       <c r="B180" t="n">
-        <v>6540</v>
+        <v>-350</v>
       </c>
       <c r="C180" t="n">
-        <v>1.262499999999999</v>
+        <v>0.5833333333333997</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>54.2951983611362</v>
+        <v>30.8697098725247</v>
       </c>
       <c r="B181" t="n">
-        <v>3310</v>
+        <v>200</v>
       </c>
       <c r="C181" t="n">
-        <v>-3.475000000000001</v>
+        <v>1.262499999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>60.2780895477212</v>
+        <v>54.2951983611362</v>
       </c>
       <c r="B182" t="n">
-        <v>5450</v>
+        <v>-3230</v>
       </c>
       <c r="C182" t="n">
-        <v>-2.087499999999999</v>
+        <v>-3.475000000000001</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>96.98956335087151</v>
+        <v>60.2780895477212</v>
       </c>
       <c r="B183" t="n">
-        <v>900</v>
+        <v>2140</v>
       </c>
       <c r="C183" t="n">
-        <v>-5.7291666666667</v>
+        <v>-2.087499999999999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>52.8993107124617</v>
+        <v>96.98956335087151</v>
       </c>
       <c r="B184" t="n">
-        <v>3710</v>
+        <v>-4550</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.9375</v>
+        <v>-5.7291666666667</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>53.2824236278974</v>
+        <v>52.8993107124617</v>
       </c>
       <c r="B185" t="n">
-        <v>5640</v>
+        <v>2810</v>
       </c>
       <c r="C185" t="n">
-        <v>3.75</v>
+        <v>-0.9375</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>50.8870818912588</v>
+        <v>53.2824236278974</v>
       </c>
       <c r="B186" t="n">
-        <v>5820</v>
+        <v>1930</v>
       </c>
       <c r="C186" t="n">
-        <v>2.204166666666701</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>54.1325856691115</v>
+        <v>50.8870818912588</v>
       </c>
       <c r="B187" t="n">
-        <v>4950</v>
+        <v>180</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.0625</v>
+        <v>2.204166666666701</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>76.8722715967518</v>
+        <v>54.1325856691115</v>
       </c>
       <c r="B188" t="n">
-        <v>3190</v>
+        <v>-870</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.09166666666670054</v>
+        <v>-2.0625</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>44.561618160457</v>
+        <v>76.8722715967518</v>
       </c>
       <c r="B189" t="n">
-        <v>4870</v>
+        <v>-1760</v>
       </c>
       <c r="C189" t="n">
-        <v>2.683333333333298</v>
+        <v>-0.09166666666670049</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>32.0017251782377</v>
+        <v>44.561618160457</v>
       </c>
       <c r="B190" t="n">
-        <v>5620</v>
+        <v>1680</v>
       </c>
       <c r="C190" t="n">
-        <v>2.1875</v>
+        <v>2.683333333333298</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>30.945799625433</v>
+        <v>32.0017251782377</v>
       </c>
       <c r="B191" t="n">
-        <v>6930</v>
+        <v>750</v>
       </c>
       <c r="C191" t="n">
-        <v>0.05416666666670267</v>
+        <v>2.1875</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>51.3474549810578</v>
+        <v>30.945799625433</v>
       </c>
       <c r="B192" t="n">
-        <v>6900</v>
+        <v>1310</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.9375</v>
+        <v>0.0541666666667026</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>66.2284984327151</v>
+        <v>51.3474549810578</v>
       </c>
       <c r="B193" t="n">
-        <v>4370</v>
+        <v>-30</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.4583333333333</v>
+        <v>-0.9375</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>34.3124924305976</v>
+        <v>66.2284984327151</v>
       </c>
       <c r="B194" t="n">
-        <v>5560</v>
+        <v>-2530</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2999999999999972</v>
+        <v>-1.4583333333333</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>54.3686241085768</v>
+        <v>34.3124924305976</v>
       </c>
       <c r="B195" t="n">
-        <v>6250</v>
+        <v>1190</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7708333333333002</v>
+        <v>0.2999999999999971</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>60.4506013677527</v>
+        <v>54.3686241085768</v>
       </c>
       <c r="B196" t="n">
-        <v>5750</v>
+        <v>690</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9291666666667027</v>
+        <v>0.7708333333333002</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>72.4456466091432</v>
+        <v>60.4506013677527</v>
       </c>
       <c r="B197" t="n">
-        <v>2640</v>
+        <v>-500</v>
       </c>
       <c r="C197" t="n">
-        <v>-3.0083333333334</v>
+        <v>0.9291666666667028</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>62.3838616199043</v>
+        <v>72.4456466091432</v>
       </c>
       <c r="B198" t="n">
-        <v>4010</v>
+        <v>-3110</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.9291666666665996</v>
+        <v>-3.0083333333334</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>61.2498530241738</v>
+        <v>62.3838616199043</v>
       </c>
       <c r="B199" t="n">
-        <v>4430</v>
+        <v>1370</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.8708333333334011</v>
+        <v>-0.9291666666665996</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>64.286284737325</v>
+        <v>61.2498530241738</v>
       </c>
       <c r="B200" t="n">
-        <v>4460</v>
+        <v>420</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6083333333333982</v>
+        <v>-0.8708333333334011</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>54.104357167128</v>
+        <v>64.286284737325</v>
       </c>
       <c r="B201" t="n">
-        <v>5380</v>
+        <v>30</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1833333333333016</v>
+        <v>0.6083333333333982</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>56.6607137171579</v>
+        <v>54.104357167128</v>
       </c>
       <c r="B202" t="n">
-        <v>5090</v>
+        <v>920</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9916666666666991</v>
+        <v>0.1833333333333016</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>56.5306632789723</v>
+        <v>56.6607137171579</v>
       </c>
       <c r="B203" t="n">
-        <v>5030</v>
+        <v>-290</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.6041666666666998</v>
+        <v>0.9916666666666992</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>72.02520468515939</v>
+        <v>56.5306632789723</v>
       </c>
       <c r="B204" t="n">
-        <v>3750</v>
+        <v>-60</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.1958333333333009</v>
+        <v>-0.6041666666666998</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>53.9216065930968</v>
+        <v>72.02520468515939</v>
       </c>
       <c r="B205" t="n">
-        <v>5890</v>
+        <v>-1280</v>
       </c>
       <c r="C205" t="n">
-        <v>1.825000000000003</v>
+        <v>-0.1958333333333008</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>78.5315443436579</v>
+        <v>53.9216065930968</v>
       </c>
       <c r="B206" t="n">
-        <v>2370</v>
+        <v>2140</v>
       </c>
       <c r="C206" t="n">
-        <v>-1.595833333333402</v>
+        <v>1.825000000000003</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>68.85804702353749</v>
+        <v>78.5315443436579</v>
       </c>
       <c r="B207" t="n">
-        <v>4250</v>
+        <v>-3520</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.7041666666665982</v>
+        <v>-1.595833333333402</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>54.9001420321289</v>
+        <v>68.85804702353749</v>
       </c>
       <c r="B208" t="n">
-        <v>5230</v>
+        <v>1880</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6333333333333009</v>
+        <v>-0.7041666666665982</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>76.8491976003163</v>
+        <v>54.9001420321289</v>
       </c>
       <c r="B209" t="n">
-        <v>2850</v>
+        <v>980</v>
       </c>
       <c r="C209" t="n">
-        <v>-2.116666666666703</v>
+        <v>0.6333333333333009</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>51.1506083330441</v>
+        <v>76.8491976003163</v>
       </c>
       <c r="B210" t="n">
-        <v>6550</v>
+        <v>-2380</v>
       </c>
       <c r="C210" t="n">
-        <v>3.254166666666702</v>
+        <v>-2.116666666666703</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>43.0980531971628</v>
+        <v>51.1506083330441</v>
       </c>
       <c r="B211" t="n">
-        <v>3290</v>
+        <v>3700</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.8000000000000007</v>
+        <v>3.254166666666702</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>87.7770559661798</v>
+        <v>43.0980531971628</v>
       </c>
       <c r="B212" t="n">
-        <v>1310</v>
+        <v>-3260</v>
       </c>
       <c r="C212" t="n">
-        <v>-4.370833333333302</v>
+        <v>-0.8000000000000007</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>62.1315979498611</v>
+        <v>87.7770559661798</v>
       </c>
       <c r="B213" t="n">
-        <v>4140</v>
+        <v>-1980</v>
       </c>
       <c r="C213" t="n">
-        <v>4.412500000000001</v>
+        <v>-4.370833333333302</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>56.8922512301052</v>
+        <v>62.1315979498611</v>
       </c>
       <c r="B214" t="n">
-        <v>4420</v>
+        <v>2830</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.2666666666667012</v>
+        <v>4.412500000000001</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>106.115720976164</v>
+        <v>56.8922512301052</v>
       </c>
       <c r="B215" t="n">
-        <v>980</v>
+        <v>280</v>
       </c>
       <c r="C215" t="n">
-        <v>-3.637499999999999</v>
+        <v>-0.2666666666667012</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>50.6219083076324</v>
+        <v>106.115720976164</v>
       </c>
       <c r="B216" t="n">
-        <v>3860</v>
+        <v>-3440</v>
       </c>
       <c r="C216" t="n">
-        <v>2.637499999999999</v>
+        <v>-3.637499999999999</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>52.4397473125462</v>
+        <v>50.6219083076324</v>
       </c>
       <c r="B217" t="n">
-        <v>5560</v>
+        <v>2880</v>
       </c>
       <c r="C217" t="n">
-        <v>1.804166666666703</v>
+        <v>2.6375</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>80.1203339134787</v>
+        <v>52.4397473125462</v>
       </c>
       <c r="B218" t="n">
-        <v>1570</v>
+        <v>1700</v>
       </c>
       <c r="C218" t="n">
-        <v>-4.5416666666667</v>
+        <v>1.804166666666703</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>51.0423950427666</v>
+        <v>80.1203339134787</v>
       </c>
       <c r="B219" t="n">
-        <v>2890</v>
+        <v>-3990</v>
       </c>
       <c r="C219" t="n">
-        <v>5.720833333333299</v>
+        <v>-4.5416666666667</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>79.55247953122939</v>
+        <v>51.0423950427666</v>
       </c>
       <c r="B220" t="n">
-        <v>1830</v>
+        <v>1320</v>
       </c>
       <c r="C220" t="n">
-        <v>-6.4</v>
+        <v>5.7208333333333</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>77.0708902711266</v>
+        <v>79.55247953122939</v>
       </c>
       <c r="B221" t="n">
-        <v>2780</v>
+        <v>-1060</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.9124999999999996</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>94.09215447467859</v>
+        <v>77.0708902711266</v>
       </c>
       <c r="B222" t="n">
-        <v>1790</v>
+        <v>950</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.2833333333333012</v>
+        <v>-0.9124999999999996</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>59.7743445132684</v>
+        <v>94.09215447467859</v>
       </c>
       <c r="B223" t="n">
-        <v>4410</v>
+        <v>-990</v>
       </c>
       <c r="C223" t="n">
-        <v>3.6208333333333</v>
+        <v>-0.2833333333333012</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>87.6275701059279</v>
+        <v>59.7743445132684</v>
       </c>
       <c r="B224" t="n">
-        <v>2420</v>
+        <v>2620</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.2791666666666011</v>
+        <v>3.6208333333333</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>41.1872772767578</v>
+        <v>87.6275701059279</v>
       </c>
       <c r="B225" t="n">
-        <v>3290</v>
+        <v>-1990</v>
       </c>
       <c r="C225" t="n">
-        <v>1.404166666666601</v>
+        <v>-0.279166666666601</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>34.732944497839</v>
+        <v>41.1872772767578</v>
       </c>
       <c r="B226" t="n">
-        <v>4750</v>
+        <v>870</v>
       </c>
       <c r="C226" t="n">
-        <v>2.712500000000002</v>
+        <v>1.404166666666601</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>34.2493470121142</v>
+        <v>34.732944497839</v>
       </c>
       <c r="B227" t="n">
-        <v>4300</v>
+        <v>1460</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.9625000000000021</v>
+        <v>2.712500000000002</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>38.628760777568</v>
+        <v>34.2493470121142</v>
       </c>
       <c r="B228" t="n">
-        <v>3820</v>
+        <v>-450</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8249999999999993</v>
+        <v>-0.962500000000002</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>40.1001407096538</v>
+        <v>38.628760777568</v>
       </c>
       <c r="B229" t="n">
-        <v>4220</v>
+        <v>-480</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.220833333333299</v>
+        <v>0.8249999999999993</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>56.0771742331938</v>
+        <v>40.1001407096538</v>
       </c>
       <c r="B230" t="n">
-        <v>2450</v>
+        <v>400</v>
       </c>
       <c r="C230" t="n">
-        <v>-3.1875</v>
+        <v>-1.2208333333333</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>66.8389059530413</v>
+        <v>56.0771742331938</v>
       </c>
       <c r="B231" t="n">
-        <v>2480</v>
+        <v>-1770</v>
       </c>
       <c r="C231" t="n">
-        <v>1.0208333333333</v>
+        <v>-3.1875</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>85.58114895473859</v>
+        <v>66.8389059530413</v>
       </c>
       <c r="B232" t="n">
-        <v>1010</v>
+        <v>30</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.75</v>
+        <v>1.0208333333333</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>50.3322097284356</v>
+        <v>85.58114895473859</v>
       </c>
       <c r="B233" t="n">
-        <v>3270</v>
+        <v>-1470</v>
       </c>
       <c r="C233" t="n">
-        <v>2.466666666666701</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>64.2728791713884</v>
+        <v>50.3322097284356</v>
       </c>
       <c r="B234" t="n">
-        <v>2150</v>
+        <v>2260</v>
       </c>
       <c r="C234" t="n">
-        <v>-2.2291666666667</v>
+        <v>2.466666666666701</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>37.7792549197241</v>
+        <v>64.2728791713884</v>
       </c>
       <c r="B235" t="n">
-        <v>4200</v>
+        <v>-1120</v>
       </c>
       <c r="C235" t="n">
-        <v>0.9458333333334004</v>
+        <v>-2.2291666666667</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>34.3494999802924</v>
+        <v>37.7792549197241</v>
       </c>
       <c r="B236" t="n">
-        <v>4610</v>
+        <v>2050</v>
       </c>
       <c r="C236" t="n">
-        <v>1.033333333333299</v>
+        <v>0.9458333333334004</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>91.940577090343</v>
+        <v>34.3494999802924</v>
       </c>
       <c r="B237" t="n">
-        <v>1130</v>
+        <v>410</v>
       </c>
       <c r="C237" t="n">
-        <v>-3.675000000000001</v>
+        <v>1.0333333333333</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>93.83552877704921</v>
+        <v>91.940577090343</v>
       </c>
       <c r="B238" t="n">
-        <v>950</v>
+        <v>-3480</v>
       </c>
       <c r="C238" t="n">
-        <v>1.150000000000002</v>
+        <v>-3.675000000000001</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>34.0468174554433</v>
+        <v>93.83552877704921</v>
       </c>
       <c r="B239" t="n">
-        <v>4610</v>
+        <v>-180</v>
       </c>
       <c r="C239" t="n">
-        <v>2.379166666666698</v>
+        <v>1.150000000000002</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>74.47295662814361</v>
+        <v>34.0468174554433</v>
       </c>
       <c r="B240" t="n">
-        <v>1520</v>
+        <v>3660</v>
       </c>
       <c r="C240" t="n">
-        <v>-3.574999999999999</v>
+        <v>2.379166666666698</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>29.5127798704663</v>
+        <v>74.47295662814361</v>
       </c>
       <c r="B241" t="n">
-        <v>5350</v>
+        <v>-3090</v>
       </c>
       <c r="C241" t="n">
-        <v>2.6458333333333</v>
+        <v>-3.575</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>62.7320436538673</v>
+        <v>29.5127798704663</v>
       </c>
       <c r="B242" t="n">
-        <v>1550</v>
+        <v>3830</v>
       </c>
       <c r="C242" t="n">
-        <v>-2.8958333333333</v>
+        <v>2.6458333333333</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>31.8214763471424</v>
+        <v>62.7320436538673</v>
       </c>
       <c r="B243" t="n">
-        <v>4810</v>
+        <v>-3800</v>
       </c>
       <c r="C243" t="n">
-        <v>2.345833333333299</v>
+        <v>-2.8958333333333</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>88.1011028502152</v>
+        <v>31.8214763471424</v>
       </c>
       <c r="B244" t="n">
-        <v>730</v>
+        <v>3260</v>
       </c>
       <c r="C244" t="n">
-        <v>-3.545833333333301</v>
+        <v>2.345833333333299</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>69.7479094129432</v>
+        <v>88.1011028502152</v>
       </c>
       <c r="B245" t="n">
-        <v>1890</v>
+        <v>-4080</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>-3.545833333333301</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>40.7092081907929</v>
+        <v>69.7479094129432</v>
       </c>
       <c r="B246" t="n">
-        <v>3570</v>
+        <v>1160</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.1124999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>29.0948684473648</v>
+        <v>40.7092081907929</v>
       </c>
       <c r="B247" t="n">
-        <v>5460</v>
+        <v>1680</v>
       </c>
       <c r="C247" t="n">
-        <v>4.762499999999999</v>
+        <v>-0.1124999999999989</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>31.7378665046258</v>
+        <v>29.0948684473648</v>
       </c>
       <c r="B248" t="n">
-        <v>4960</v>
+        <v>1890</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.5166666666667012</v>
+        <v>4.762499999999999</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>29.1257373410348</v>
+        <v>31.7378665046258</v>
       </c>
       <c r="B249" t="n">
-        <v>5500</v>
+        <v>-500</v>
       </c>
       <c r="C249" t="n">
-        <v>-2.483333333333299</v>
+        <v>-0.5166666666667012</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>39.478222174848</v>
+        <v>29.1257373410348</v>
       </c>
       <c r="B250" t="n">
-        <v>3910</v>
+        <v>540</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9291666666665996</v>
+        <v>-2.483333333333299</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>43.8308690183881</v>
+        <v>39.478222174848</v>
       </c>
       <c r="B251" t="n">
-        <v>3240</v>
+        <v>-1590</v>
       </c>
       <c r="C251" t="n">
-        <v>2.116666666666699</v>
+        <v>0.9291666666665996</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>41.3809688713314</v>
+        <v>43.8308690183881</v>
       </c>
       <c r="B252" t="n">
-        <v>3680</v>
+        <v>-670</v>
       </c>
       <c r="C252" t="n">
-        <v>0.02083333333330017</v>
+        <v>2.116666666666699</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>35.9221567623792</v>
+        <v>41.3809688713314</v>
       </c>
       <c r="B253" t="n">
-        <v>4210</v>
+        <v>440</v>
       </c>
       <c r="C253" t="n">
-        <v>1.391666666666701</v>
+        <v>0.0208333333333001</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>44.4154462449658</v>
+        <v>35.9221567623792</v>
       </c>
       <c r="B254" t="n">
-        <v>2930</v>
+        <v>530</v>
       </c>
       <c r="C254" t="n">
-        <v>-2.350000000000001</v>
+        <v>1.391666666666701</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
+        <v>44.4154462449658</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-1280</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-2.350000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
         <v>76.7555574895248</v>
       </c>
-      <c r="B255" t="n">
-        <v>1310</v>
-      </c>
-      <c r="C255" t="n">
-        <v>-0.2999999999999972</v>
+      <c r="B256" t="n">
+        <v>-1620</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.2999999999999971</v>
       </c>
     </row>
   </sheetData>
